--- a/TestDocumentation/TestCase.xlsx
+++ b/TestDocumentation/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA_Slack\TestDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A640B465-B756-46AB-9795-4551EA0E0B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB751521-0508-4E96-AF2C-F05058BF894A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="388">
   <si>
     <t>TC ID</t>
   </si>
@@ -1343,6 +1345,66 @@
   </si>
   <si>
     <t>Requirements</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-01.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-02.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-03.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-04.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-05.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-06.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-07.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-08.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-09.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-10.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-11.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-12.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-13.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-14.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-15.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-16.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-17.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-18.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-19.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Baray44/QA_Slack/blob/master/TestDocumentation/BugReport/Bug%20(noveogroup.com)/BG-20.png</t>
   </si>
 </sst>
 </file>
@@ -1904,9 +1966,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,6 +2073,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2312,40 +2374,40 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="243.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2449,7 +2511,7 @@
       <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2460,19 +2522,19 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -2486,10 +2548,10 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2504,7 +2566,7 @@
       <c r="G5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2524,13 +2586,13 @@
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="50" t="s">
         <v>260</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2538,25 +2600,25 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="C7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="45" t="s">
         <v>72</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="47" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2582,7 +2644,7 @@
       <c r="G8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2720,7 +2782,7 @@
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -2738,7 +2800,7 @@
       <c r="G14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2746,7 +2808,7 @@
       <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2772,7 +2834,7 @@
       <c r="A16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>166</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2790,7 +2852,7 @@
       <c r="G16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2816,16 +2878,16 @@
       <c r="G17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="38"/>
+      <c r="H17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -2843,7 +2905,7 @@
       <c r="G18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2851,7 +2913,7 @@
       <c r="A19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>126</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -2869,7 +2931,7 @@
       <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2877,7 +2939,7 @@
       <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -2895,7 +2957,7 @@
       <c r="G20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2921,7 +2983,7 @@
       <c r="G21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2947,7 +3009,7 @@
       <c r="G22" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2973,7 +3035,7 @@
       <c r="G23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2999,7 +3061,7 @@
       <c r="G24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3025,7 +3087,7 @@
       <c r="G25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3051,7 +3113,7 @@
       <c r="G26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3077,7 +3139,7 @@
       <c r="G27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3103,7 +3165,7 @@
       <c r="G28" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3129,7 +3191,7 @@
       <c r="G29" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3155,12 +3217,12 @@
       <c r="G30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>155</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3181,15 +3243,15 @@
       <c r="G31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>189</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3207,15 +3269,15 @@
       <c r="G32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>190</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3233,12 +3295,12 @@
       <c r="G33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3259,7 +3321,7 @@
       <c r="G34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3285,7 +3347,7 @@
       <c r="G35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3311,7 +3373,7 @@
       <c r="G36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3331,18 +3393,18 @@
       <c r="E37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="34" t="s">
         <v>222</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>197</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -3363,12 +3425,12 @@
       <c r="G38" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>198</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -3386,18 +3448,18 @@
       <c r="F39" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>309</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3412,15 +3474,15 @@
       <c r="F40" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>200</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3438,10 +3500,10 @@
       <c r="F41" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3461,18 +3523,18 @@
       <c r="E42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="32" t="s">
         <v>202</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -3493,15 +3555,15 @@
       <c r="G43" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>247</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3519,15 +3581,15 @@
       <c r="G44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>248</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -3545,12 +3607,12 @@
       <c r="G45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="39" t="s">
         <v>230</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3565,13 +3627,13 @@
       <c r="E46" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="34" t="s">
         <v>243</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3597,7 +3659,7 @@
       <c r="G47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3623,7 +3685,7 @@
       <c r="G48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3631,25 +3693,25 @@
       <c r="A49" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="34" t="s">
+      <c r="C49" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="32" t="s">
         <v>164</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3660,22 +3722,22 @@
       <c r="B50" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="33" t="s">
         <v>159</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3686,7 +3748,7 @@
       <c r="B51" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -3701,7 +3763,7 @@
       <c r="G51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H51" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3750,7 +3812,7 @@
       <c r="F53" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -3776,7 +3838,7 @@
       <c r="F54" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -3802,7 +3864,7 @@
       <c r="F55" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -3816,7 +3878,7 @@
       <c r="B56" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -3828,10 +3890,10 @@
       <c r="F56" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3842,7 +3904,7 @@
       <c r="B57" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -3854,10 +3916,10 @@
       <c r="F57" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3868,7 +3930,7 @@
       <c r="B58" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -3880,10 +3942,10 @@
       <c r="F58" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3906,7 +3968,7 @@
       <c r="F59" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -3932,7 +3994,7 @@
       <c r="F60" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -3958,7 +4020,7 @@
       <c r="F61" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -3972,7 +4034,7 @@
       <c r="B62" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -3998,7 +4060,7 @@
       <c r="B63" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -4010,7 +4072,7 @@
       <c r="F63" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -4024,7 +4086,7 @@
       <c r="B64" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -4036,7 +4098,7 @@
       <c r="F64" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -4102,7 +4164,7 @@
       <c r="B67" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -4114,10 +4176,10 @@
       <c r="F67" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4128,7 +4190,7 @@
       <c r="B68" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -4166,7 +4228,7 @@
       <c r="F69" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="41" t="s">
         <v>333</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -4195,7 +4257,7 @@
       <c r="G70" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H70" s="23" t="s">
+      <c r="H70" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4244,10 +4306,10 @@
       <c r="F72" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G72" s="42" t="s">
+      <c r="G72" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4270,10 +4332,10 @@
       <c r="F73" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G73" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="H73" s="23" t="s">
+      <c r="H73" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4289,9 +4351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90BF1C9-91F2-418B-9FAD-F0C54BF91D76}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4304,38 +4366,38 @@
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4343,7 +4405,7 @@
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4367,19 +4429,21 @@
       <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="55" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4397,19 +4461,21 @@
       <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="55" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4427,19 +4493,21 @@
       <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="55" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4457,19 +4525,21 @@
       <c r="I5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="55" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -4487,13 +4557,15 @@
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="55" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -4517,13 +4589,15 @@
       <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="55" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -4547,13 +4621,15 @@
       <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="55" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4577,7 +4653,9 @@
       <c r="I9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="55" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -4607,19 +4685,21 @@
       <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="55" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>216</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>220</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4637,19 +4717,21 @@
       <c r="I11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="55" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>223</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>220</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4667,19 +4749,21 @@
       <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="55" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>250</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4697,7 +4781,9 @@
       <c r="I13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="55" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -4706,7 +4792,7 @@
       <c r="B14" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>260</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4727,19 +4813,21 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="55" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>267</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -4757,19 +4845,21 @@
       <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="55" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>296</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>267</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -4787,19 +4877,21 @@
       <c r="I16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="55" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>295</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>267</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4817,7 +4909,9 @@
       <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="55" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -4829,7 +4923,7 @@
       <c r="C18" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>324</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4847,19 +4941,21 @@
       <c r="I18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="55" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>335</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>338</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -4877,19 +4973,21 @@
       <c r="I19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="55" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>356</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>351</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4907,19 +5005,21 @@
       <c r="I20" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="55" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>355</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>351</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -4937,9 +5037,33 @@
       <c r="I21" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="55" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{93744EAA-7284-4DBC-9663-359A30D42301}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{43AF6E22-9110-42B5-BBB6-BCC6B1942797}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{E69D27B9-5B6C-454D-A8FB-37DA7C0F6FEF}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{752ABAFE-883F-4222-9E94-45CA47B40ABA}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{5A4643AD-0D9D-4281-ADA2-B187863851E1}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{D5452550-2CEC-4A0E-836C-EEC89269D1A2}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{DCA10011-E3DB-4F9A-B5DF-010AA6797DBF}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{B5E3852F-73C6-49CD-B910-42DC6F583A11}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{A9FBFFBC-B219-4B63-A3BD-66DBF933CB08}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{D65E8457-E15F-4BEE-A458-F75AC048435F}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{9F85F60A-698E-4262-9E99-E11DB0B69627}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{343C9871-21E4-4EFD-A6DA-E4C3671788CB}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{3271CA47-4575-4204-ABEB-85AF0709AEE5}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{0B1E4742-C0AA-484C-951C-1E02788AAA2D}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{44B13224-094E-43FD-8B68-8610231D0851}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{C0A36ECA-D11A-4462-9243-0CF24BD33D11}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{5CACE2F6-66B9-429A-A5F3-A9CE10749B37}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{3FE81448-1FDF-41DE-88A9-A5F5AEE63F8F}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{E8D88019-F566-42C5-9E17-615F270D8702}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{9F618583-D5C7-40D7-9DAD-9C26DBE7A287}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4958,47 +5082,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>365</v>
       </c>
     </row>
